--- a/biology/Histoire de la zoologie et de la botanique/Robert_Hainard/Robert_Hainard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Hainard/Robert_Hainard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Hainard, né le 11 septembre 1906 à Genève et mort le 26 décembre 1999 à Gland, est un artiste, naturaliste et écrivain suisse.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses parents, Philippe Hainard (1879-1938) et Eugénie Hainard-Béchard (1882-1942), étaient peintres. À 12 ans, il quitte l'école primaire, son père veille alors sur son instruction générale et commence à lui enseigner le dessin.
-En 1921, il entre aux Arts Industriels, où il rencontre sa femme, Germaine Roten (1902-1990) qu'il épouse en 1929. Ils ont deux enfants, et en 1938 s'établiront dans la commune genevoise de Bernex[1].
-Il invente en 1924[2] un nouveau procédé de gravure sur bois[3] et en 1929 expose ses premières estampes animalières au Salon genevois de l'œuvre.
+En 1921, il entre aux Arts Industriels, où il rencontre sa femme, Germaine Roten (1902-1990) qu'il épouse en 1929. Ils ont deux enfants, et en 1938 s'établiront dans la commune genevoise de Bernex.
+Il invente en 1924 un nouveau procédé de gravure sur bois et en 1929 expose ses premières estampes animalières au Salon genevois de l'œuvre.
 Robert Hainard publie des ouvrages sur la nature et la vie sauvage, basés sur l'observation directe, notamment Mammifères sauvages d'Europe (1949), illustré par ses croquis pris sur le vif.
-Son œuvre, marquée par un goût prononcé pour le sauvage et une opposition radicale à la société industrielle (« profondément conservateur et antimoderne »), en a fait une source importante pour les mouvements écologistes qui émergent en Europe à partir des années 1960, devenant l'une des inspirations majeures de l'aile droite de la mouvance écologiste, ainsi que, plus récemment, des mouvances associées au rewilding et aux « penseurs du vivant » publiés dans la collection « Mondes sauvages » d'Actes Sud[4].
+Son œuvre, marquée par un goût prononcé pour le sauvage et une opposition radicale à la société industrielle (« profondément conservateur et antimoderne »), en a fait une source importante pour les mouvements écologistes qui émergent en Europe à partir des années 1960, devenant l'une des inspirations majeures de l'aile droite de la mouvance écologiste, ainsi que, plus récemment, des mouvances associées au rewilding et aux « penseurs du vivant » publiés dans la collection « Mondes sauvages » d'Actes Sud.
 </t>
         </is>
       </c>
@@ -546,12 +560,14 @@
           <t>Conservation de la nature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Engagé pour la nature, il a participé en 1928 à la création de l’Association pour la création et l’entretien des réserves naturelles dans le canton de Genève, actuellement Pro Natura Genève[5].
-Dans la Ligue suisse pour la protection de la nature, il soutient le Centre Information-Nature de Champ-Pittet en offrant ses droits d'auteur lors de la vente d'une sculpture de grèbe huppé avec son poussin[6].
-En 1972, l'exécutif des Grisons envisage de faire tuer 1000 cerfs, avec l'accord des autorités fédérales et de la commission fédérale du Parc national suisse, car les effectifs des cervidés ont augmenté et ils causent des dégâts aux forêts. Les gardiens du parc expriment leur indignation et de nombreux spécialistes et défenseurs de la nature proposent plutôt une régulation par l'introduction de prédateurs. Robert Hainard est de cet avis car à Obwald où huit lynx avaient été introduits, les résultats sont concluants : ils se nourrissent de chevreuils faibles et favorisent la mobilité des troupeaux, ce qui empêche les gros dégâts aux forêts. Il estime qu'une réintroduction du loup, ennemi naturel du cerf, serait encore plus efficace, mais il déplore qu'une "vieille terreur populaire" le considère comme ennemi de l'homme, ce qui n'est pas fondé dans les conditions du Parc national suisse[7].
-Il inspire une génération de jeunes naturalistes par sa relation avec la nature, sa capacité de s'intégrer et se cacher dans un milieu sauvage pendant des heures, jour et nuit, en toutes saisons. Son respect des animaux le conduit à les comprendre et lui permet de saisir leur image sans les déranger[8],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Engagé pour la nature, il a participé en 1928 à la création de l’Association pour la création et l’entretien des réserves naturelles dans le canton de Genève, actuellement Pro Natura Genève.
+Dans la Ligue suisse pour la protection de la nature, il soutient le Centre Information-Nature de Champ-Pittet en offrant ses droits d'auteur lors de la vente d'une sculpture de grèbe huppé avec son poussin.
+En 1972, l'exécutif des Grisons envisage de faire tuer 1000 cerfs, avec l'accord des autorités fédérales et de la commission fédérale du Parc national suisse, car les effectifs des cervidés ont augmenté et ils causent des dégâts aux forêts. Les gardiens du parc expriment leur indignation et de nombreux spécialistes et défenseurs de la nature proposent plutôt une régulation par l'introduction de prédateurs. Robert Hainard est de cet avis car à Obwald où huit lynx avaient été introduits, les résultats sont concluants : ils se nourrissent de chevreuils faibles et favorisent la mobilité des troupeaux, ce qui empêche les gros dégâts aux forêts. Il estime qu'une réintroduction du loup, ennemi naturel du cerf, serait encore plus efficace, mais il déplore qu'une "vieille terreur populaire" le considère comme ennemi de l'homme, ce qui n'est pas fondé dans les conditions du Parc national suisse.
+Il inspire une génération de jeunes naturalistes par sa relation avec la nature, sa capacité de s'intégrer et se cacher dans un milieu sauvage pendant des heures, jour et nuit, en toutes saisons. Son respect des animaux le conduit à les comprendre et lui permet de saisir leur image sans les déranger,.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Et la nature ? Réflexions d'un peintre, Éditions Gérard de Buren, 1943
 Nature et mécanisme, Neuchâtel, Éditions du Griffon coll. « Problèmes de la philosophie des sciences », 1946
@@ -604,9 +622,7 @@
 Le monde plein, Éd. Melchior, 1991
 Sculptures, Éd. Hesse, 1993
 La Méthode de mon père. Enseignement du dessin et du modelage, Genève, éd. Nicolas Junod, 1994
-Chœur de loups et autres histoires d’ours, Genève, Éd. Slatkine, collection « L’Œil ouvert », 1999
-Contribution à un ouvrage collectif
-Henri-Paul Deshusses, L'année sauvage, préface et dessins de Robert Hainard, photographies de Jacques Binggeli et J.P. Landenberg, Georg, Genève, 1985  (ISBN 2-8257-0119-X).</t>
+Chœur de loups et autres histoires d’ours, Genève, Éd. Slatkine, collection « L’Œil ouvert », 1999</t>
         </is>
       </c>
     </row>
@@ -631,13 +647,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Expositions</t>
+          <t>Publications</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germaine et Robert Hainard exposent leurs œuvres, peintures pour elle et gravures pour lui, au Centre de rencontres de Cartigny[10].
-</t>
+          <t>Contribution à un ouvrage collectif</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Henri-Paul Deshusses, L'année sauvage, préface et dessins de Robert Hainard, photographies de Jacques Binggeli et J.P. Landenberg, Georg, Genève, 1985  (ISBN 2-8257-0119-X).</t>
         </is>
       </c>
     </row>
@@ -662,10 +683,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Germaine et Robert Hainard exposent leurs œuvres, peintures pour elle et gravures pour lui, au Centre de rencontres de Cartigny.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Robert_Hainard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_Hainard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinctions et hommages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a notamment obtenu les distinctions suivantes :
 bourse Lissignol ;
@@ -676,7 +732,7 @@
 prix de l’Académie internationale de Philosophie de l’Art, 1984 ;
 médaille François-Sommer, Paris, 1987 ;
 mérite bernésien, 1987.
-Une promenade à Yverdon, un étang à Genève, proche du Rhône, situé entre Cartigny et Aire-la-Ville, une école primaire à Bernex portent son nom[11].
+Une promenade à Yverdon, un étang à Genève, proche du Rhône, situé entre Cartigny et Aire-la-Ville, une école primaire à Bernex portent son nom.
 </t>
         </is>
       </c>
